--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12495"/>
+    <workbookView windowWidth="28125" windowHeight="12495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="5 nguyên ly solid" sheetId="1" r:id="rId1"/>
+    <sheet name="demo" sheetId="2" r:id="rId2"/>
+    <sheet name="Inversion of Control" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Single responsibility priciple</t>
   </si>
@@ -34,8 +36,42 @@
     <t>Khái niệm</t>
   </si>
   <si>
-    <t>Mỗi lớp chỉ nên chịu trách nhiệm về một nhiệm vụ cụ thể nào đó mà thôi. 
-Một class có quá nhiều chức năng sẽ trở nên cồng kềnh và trở nên khó đọc, khó maintain.</t>
+    <t xml:space="preserve">Mỗi lớp chỉ nên chịu trách nhiệm về một nhiệm vụ cụ thể nào đó mà thôi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có thể thoải mái mở rộng 1 class, nhưng không được sửa đổi bên trong class đó </t>
+  </si>
+  <si>
+    <t>Trong một chương trình, các object của class con có thể thay thế class cha mà không làm thay đổi tính đúng đắn của chương trình</t>
+  </si>
+  <si>
+    <t>Thay vì dùng 1 interface lớn, ta nên tách thành nhiều interface nhỏ, với nhiều mục đích cụ thể</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Các module cấp cao không nên phụ thuộc vào các modules cấp thấp. 
+   Cả 2 nên phụ thuộc vào abstraction.
+2. Interface (abstraction) không nên phụ thuộc vào chi tiết, mà ngược lại.
+( Các class giao tiếp với nhau thông qua interface, 
+không phải thông qua implementation.)
+</t>
+  </si>
+  <si>
+    <t>Mục đích</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mục đích của SRP là giúp cho các class trở nên đơn giản và dễ bảo trì bằng cách chỉ đảm nhận một trách nhiệm duy nhất trong ứng dụng.</t>
+  </si>
+  <si>
+    <t>Mục đích của OCP là đảm bảo tính mở rộng và dễ bảo trì cho ứng dụng bằng cách thiết kế các class và module sao cho chúng có thể mở rộng nhưng không cần phải sửa đổi code đã có.</t>
+  </si>
+  <si>
+    <t>Đảm bảo tính nhất quán của hệ thống và đảm bảo tính linh hoạt của mã nguồn, cho phép các đối tượng con được thêm vào hoặc thay thế trong hệ thống mà không làm thay đổi chức năng hoặc hành vi của hệ thống.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Giảm sự phụ thuộc (dependency) của một class vào những interface mà nó không cần sử dụng</t>
+  </si>
+  <si>
+    <t>Tạo ra một kiến trúc linh hoạt cho các ứng dụng, giúp giảm sự phụ thuộc giữa các phần của hệ thống và tăng tính tái sử dụng.</t>
   </si>
 </sst>
 </file>
@@ -43,12 +79,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,10 +93,138 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -72,120 +236,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,13 +243,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -210,67 +253,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,54 +409,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -355,42 +434,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,17 +447,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -430,39 +467,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,6 +495,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -506,7 +549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -524,138 +567,147 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -723,15 +775,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>635</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1791970</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1040765</xdr:colOff>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>24765</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -749,7 +801,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="2209800"/>
+          <a:off x="6059170" y="8648700"/>
           <a:ext cx="5716270" cy="3148965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -757,6 +809,472 @@
         </a:prstGeom>
         <a:noFill/>
         <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3239770</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>125095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="SOLID – Nguyên lý 1: Đơn nhiệm – Single Responsibility principle (SRP)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="5219700"/>
+          <a:ext cx="3058795" cy="3058795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3125470</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4314825" y="5575935"/>
+          <a:ext cx="3077845" cy="2310765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>74930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3189605</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7600950" y="5561330"/>
+          <a:ext cx="3046730" cy="2287270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>37465</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3155315</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>4445</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10772140" y="5608320"/>
+          <a:ext cx="3117850" cy="2168525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>86995</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3020060</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13992225" y="5573395"/>
+          <a:ext cx="2934335" cy="2214880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>527685</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="66675"/>
+          <a:ext cx="7090410" cy="6465570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8486775" y="635"/>
+          <a:ext cx="6248400" cy="6524625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8562975" y="6848475"/>
+          <a:ext cx="6191250" cy="7267575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="6924675"/>
+          <a:ext cx="7124700" cy="5428615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>90170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="485775" y="14377670"/>
+          <a:ext cx="5753100" cy="9777730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>36195</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191500" y="14312265"/>
+          <a:ext cx="5865495" cy="9836785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -1024,45 +1542,78 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="69.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="28.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="32.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="14.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="49.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="47.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="49.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="47.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" t="s">
+    <row r="1" ht="21" spans="1:6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="45" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" ht="210" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="126" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1070,4 +1621,37 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="L105" sqref="L105"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V8" sqref="E19 V8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Máy tính\tranning-springboot-17-04-2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183A11F5-1103-4B40-BBC4-665A3DCD48E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12495" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5 nguyên ly solid" sheetId="1" r:id="rId1"/>
     <sheet name="demo" sheetId="2" r:id="rId2"/>
     <sheet name="Inversion of Control" sheetId="3" r:id="rId3"/>
+    <sheet name="@Restcontroller" sheetId="4" r:id="rId4"/>
+    <sheet name="@Scope" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Single responsibility priciple</t>
   </si>
@@ -73,23 +81,58 @@
   <si>
     <t>Tạo ra một kiến trúc linh hoạt cho các ứng dụng, giúp giảm sự phụ thuộc giữa các phần của hệ thống và tăng tính tái sử dụng.</t>
   </si>
+  <si>
+    <t>Restcontroller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RestController cũng giống như @Controller, tuy nhiên, nó kết hợp với @ResponseBody, cho phép các phương thức của nó trả về các Response Body của HTTP Response, chứ không phải là một view (trang HTML). Vì vậy, @RestController thường được sử dụng để tạo các RESTful Web Services, cho phép truy cập và thao tác với dữ liệu thông qua các yêu cầu HTTP (GET, POST, PUT, DELETE, v.v.).
+Với @Controller, khi các phương thức của nó trả về một view (trang HTML), thì ViewResolver sẽ được sử dụng để tìm kiếm view tương ứng để hiển thị trên trình duyệt. Còn với @RestController, khi các phương thức trả về một Response Body, Spring sẽ chuyển đổi đối tượng trả về thành định dạng tương ứng, ví dụ như JSON hoặc XML.
+</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Để giúp xác định các lớp Service trong ứng dụng và quản lý chúng thông qua Spring IoC Container. Nó giúp cho việc quản lý các đối tượng Service trở nên dễ dàng hơn bằng cách cho phép các đối tượng này được quản lý bởi Spring IoC Container và thực hiện Dependency Injection</t>
+  </si>
+  <si>
+    <t>Repository</t>
+  </si>
+  <si>
+    <t>Là một Annotation trong Spring Framework được sử dụng để xác định các lớp Repository trong ứng dụng và quản lý chúng thông qua Spring IoC Container. Annotation này giúp cho việc quản lý các đối tượng Repository trở nên dễ dàng hơn và có thể được kết hợp với các tính năng của Spring Data để thao tác với cơ sở dữ liệu dễ dàng hơn.</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Scope là một annotation trong Spring Framework, cho phép bạn định nghĩa phạm vi (scope) của một bean trong ứng dụng của mình. Nó cho phép bạn chỉ định cách mà Spring quản lý các instance của bean, và xác định xem bean đó sẽ tồn tại trong bao lâu và trong bao nhiêu phạm vi khác nhau.</t>
+  </si>
+  <si>
+    <t>Có 5 scope được định nghĩa cho Spring Bean:
+- Singleton: Chỉ duy nhất một thể hiện của bean sẽ được tạo cho mỗi container. Đây là scope mặc định cho spring bean. Khi sử dụng scope này cần chắc chắn rằng các bean không có các biến/thuộc tính được share.
+- Prototype: Một thể hiện của bean sẽ được tạo cho mỗi lần được yêu cầu(request)
+- Request: giống với prototype scope, tuy nhiên nó dùng cho ứng dụng web, một thể hiện của bean sẽ được tạo cho mỗi HTTP request.
+- Session: Mỗi thể hiện của bean sẽ được tạo cho mỗi HTTP Session
+- Global-Session: Được sử dụng để tạo global sesion bean cho các ứng dụng Portlet.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,346 +142,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -446,260 +159,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -708,71 +188,30 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -788,13 +227,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="SOLID là gì? 5 nguyên tắc của SOLID và cách áp dụng"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="SOLID là gì? 5 nguyên tắc của SOLID và cách áp dụng">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -830,7 +275,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="SOLID – Nguyên lý 1: Đơn nhiệm – Single Responsibility principle (SRP)"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="SOLID – Nguyên lý 1: Đơn nhiệm – Single Responsibility principle (SRP)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -871,13 +322,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3" r:link="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -913,13 +370,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4" r:link="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -955,13 +418,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5" r:link="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -997,13 +466,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6" r:link="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1028,7 +503,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1044,13 +519,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1086,13 +567,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1128,13 +615,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1170,13 +663,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1212,13 +711,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1254,13 +759,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1277,6 +788,841 @@
         <a:ln w="9525">
           <a:noFill/>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4097" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B857557-1867-4A7A-9FDD-8F8226A42C63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="2743200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4098" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4329EB9-C33E-434F-B0E5-FAFB6922FD84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5768340" y="182880"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4099" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1EE9668-B48C-4E64-8C85-BC835B6CAB2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5768340" y="182880"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4100" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B335CE80-219F-44A0-901E-9C204FCF5A7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5768340" y="182880"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4101" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBC3E5CD-1FF0-4997-86FC-FD445A8CAA77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5768340" y="182880"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4102" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBF472A3-3781-44C7-9E17-34F1464A2527}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5768340" y="182880"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4103" name="AutoShape 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F710811D-62DE-47EC-8ED0-48785BACC896}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5768340" y="3108960"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4104" name="AutoShape 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFEFF59F-E1F3-4C44-AB36-9B85B8AA6D0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5158740" y="2926080"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4105" name="AutoShape 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13196657-47C2-48BF-BBA3-6FBD8AB494F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5158740" y="2926080"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4106" name="AutoShape 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EC62E17-8BA4-4374-B6EE-9A27644291C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5158740" y="2926080"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4107" name="AutoShape 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D600F2A-82C4-4A5D-9C05-10415D32BBF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5158740" y="2926080"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4108" name="AutoShape 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F4CD5C-3E6D-4CD3-8BF6-4269E0D4BD31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5158740" y="2926080"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4109" name="AutoShape 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8647451D-D430-4581-A1F4-F122D4099596}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5158740" y="2926080"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4110" name="AutoShape 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD2F127-4E0D-48ED-AEF0-86F2D52DE66A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5158740" y="2926080"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4111" name="AutoShape 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276932CA-EE4A-4EE3-82A3-E6496B7700E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5158740" y="2926080"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5407299</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D84DC4-7C03-4FCE-9700-EE6085BC4865}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="2895600"/>
+          <a:ext cx="5361579" cy="2537460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2217420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Spring Core - Spring Bean, Các scope trong Spring, Spring Bean Scope">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19BBE9A7-837D-4697-A2FC-B78D7A518AA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5204460" y="297180"/>
+          <a:ext cx="3688080" cy="3017520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1536,29 +1882,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="49.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="47.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="49.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="47.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="49.5546875" customWidth="1"/>
+    <col min="3" max="3" width="47.88671875" customWidth="1"/>
+    <col min="4" max="4" width="49.109375" customWidth="1"/>
+    <col min="5" max="5" width="47.5546875" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" spans="1:6">
+    <row r="1" spans="1:6" ht="21">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1576,7 +1922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="210" spans="1:6">
+    <row r="2" spans="1:6" ht="210">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1596,7 +1942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="126" spans="1:6">
+    <row r="3" spans="1:6" ht="126">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1618,40 +1964,116 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A112" workbookViewId="0">
       <selection activeCell="L105" sqref="L105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V8" sqref="E19 V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B09B8BD-0B24-44F9-A5F9-4134BF9F3E81}">
+  <dimension ref="B1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="79.88671875" customWidth="1"/>
+    <col min="3" max="3" width="69.88671875" customWidth="1"/>
+    <col min="4" max="4" width="48" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="147" customHeight="1">
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F728CD-0C51-4710-B376-7866FABAC959}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="51.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="72">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="216">
+      <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,30 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Máy tính\tranning-springboot-17-04-2023\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183A11F5-1103-4B40-BBC4-665A3DCD48E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="5 nguyên ly solid" sheetId="1" r:id="rId1"/>
     <sheet name="demo" sheetId="2" r:id="rId2"/>
-    <sheet name="Inversion of Control" sheetId="3" r:id="rId3"/>
+    <sheet name="IoC &amp; DI" sheetId="3" r:id="rId3"/>
     <sheet name="@Restcontroller" sheetId="4" r:id="rId4"/>
     <sheet name="@Scope" sheetId="5" r:id="rId5"/>
+    <sheet name="@Configuration &amp; @Bean" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Single responsibility priciple</t>
   </si>
@@ -82,7 +77,44 @@
     <t>Tạo ra một kiến trúc linh hoạt cho các ứng dụng, giúp giảm sự phụ thuộc giữa các phần của hệ thống và tăng tính tái sử dụng.</t>
   </si>
   <si>
+    <t>IoC</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>IoC là viết tắt của Inversion of Control, hay còn gọi là Dependency Injection (DI). IoC là một nguyên tắc thiết kế phần mềm, trong đó vai trò điều khiển luồng của chương trình được đảo ngược hoàn toàn.
+Trong truyền thống, các đối tượng có thể được tạo và sử dụng bằng cách khởi tạo chúng bên trong lớp hoặc đối tượng khác. Khi sử dụng IoC, các đối tượng không được tạo bên trong lớp hoặc đối tượng đó, mà được tạo và quản lý bởi một bên thứ ba, thường là một container, chẳng hạn như Spring IoC container.</t>
+  </si>
+  <si>
+    <t>Nó là cơ chế để cung cấp các đối tượng phụ thuộc cho một đối tượng thông qua constructor, setter hoặc trực tiếp thông qua các trường của nó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lợi ích </t>
+  </si>
+  <si>
+    <t>Giảm sự phụ thuộc giữa các đối tượng.
+Dễ dàng thay đổi hoặc thay thế các đối tượng.
+Dễ dàng kiểm thử và đánh giá các đối tượng một cách độc lập.
+Tăng tính tái sử dụng của mã.</t>
+  </si>
+  <si>
+    <t>Nhược điểm</t>
+  </si>
+  <si>
+    <t>Khái niệm DI khá “khó tiêu”, các developer mới sẽ gặp khó khăn khi học
+Sử dụng interface nên đôi khi sẽ khó debug, do không biết chính xác module nào được gọi
+Các object được khởi tạo toàn bộ ngay từ đầu, có thể làm giảm performance
+Làm tăng độ phức tạp của code</t>
+  </si>
+  <si>
     <t>Restcontroller</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Repository</t>
   </si>
   <si>
     <t xml:space="preserve">RestController cũng giống như @Controller, tuy nhiên, nó kết hợp với @ResponseBody, cho phép các phương thức của nó trả về các Response Body của HTTP Response, chứ không phải là một view (trang HTML). Vì vậy, @RestController thường được sử dụng để tạo các RESTful Web Services, cho phép truy cập và thao tác với dữ liệu thông qua các yêu cầu HTTP (GET, POST, PUT, DELETE, v.v.).
@@ -90,13 +122,7 @@
 </t>
   </si>
   <si>
-    <t>Service</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Để giúp xác định các lớp Service trong ứng dụng và quản lý chúng thông qua Spring IoC Container. Nó giúp cho việc quản lý các đối tượng Service trở nên dễ dàng hơn bằng cách cho phép các đối tượng này được quản lý bởi Spring IoC Container và thực hiện Dependency Injection</t>
-  </si>
-  <si>
-    <t>Repository</t>
   </si>
   <si>
     <t>Là một Annotation trong Spring Framework được sử dụng để xác định các lớp Repository trong ứng dụng và quản lý chúng thông qua Spring IoC Container. Annotation này giúp cho việc quản lý các đối tượng Repository trở nên dễ dàng hơn và có thể được kết hợp với các tính năng của Spring Data để thao tác với cơ sở dữ liệu dễ dàng hơn.</t>
@@ -115,12 +141,31 @@
 - Session: Mỗi thể hiện của bean sẽ được tạo cho mỗi HTTP Session
 - Global-Session: Được sử dụng để tạo global sesion bean cho các ứng dụng Portlet.</t>
   </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>Bean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trong Spring Framework, @Configuration là một annotation được sử dụng để chỉ định rằng một lớp được sử dụng để cấu hình các bean và các thành phần khác của ứng dụng.
+</t>
+  </si>
+  <si>
+    <t>Trong Spring Core, @Bean là một annotation được sử dụng để đánh dấu một phương thức trả về đối tượng nào đó là một bean. Bean là một đối tượng được quản lý bởi Spring IoC container và được sử dụng trong ứng dụng.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,7 +177,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,16 +187,346 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -159,9 +534,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -169,8 +786,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -178,40 +810,69 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -227,27 +888,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="SOLID là gì? 5 nguyên tắc của SOLID và cách áp dụng">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="SOLID là gì? 5 nguyên tắc của SOLID và cách áp dụng"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2"/>
+        <a:blip r:embed="rId1" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6059170" y="8648700"/>
-          <a:ext cx="5716270" cy="3148965"/>
+          <a:off x="6058535" y="8648700"/>
+          <a:ext cx="5715635" cy="3148965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -262,39 +917,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3125470</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3239770</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>125095</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="SOLID – Nguyên lý 1: Đơn nhiệm – Single Responsibility principle (SRP)">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
+        <a:blip r:embed="rId3" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1143000" y="5219700"/>
-          <a:ext cx="3058795" cy="3058795"/>
+          <a:off x="4314190" y="5575935"/>
+          <a:ext cx="3077845" cy="2310765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -309,40 +959,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>89535</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3125470</xdr:colOff>
+      <xdr:rowOff>74930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3189605</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" r:link="rId2"/>
+        <a:blip r:embed="rId4" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4314825" y="5575935"/>
-          <a:ext cx="3077845" cy="2310765"/>
+          <a:off x="7602220" y="5561330"/>
+          <a:ext cx="3046730" cy="2287270"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -357,40 +1001,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>37465</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>74930</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3189605</xdr:colOff>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3155315</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>4445</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" r:link="rId2"/>
+        <a:blip r:embed="rId5" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7600950" y="5561330"/>
-          <a:ext cx="3046730" cy="2287270"/>
+          <a:off x="10770870" y="5608320"/>
+          <a:ext cx="3117850" cy="2168525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -405,40 +1043,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>37465</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3155315</xdr:colOff>
+      <xdr:rowOff>86995</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3020060</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>4445</xdr:rowOff>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" r:link="rId2"/>
+        <a:blip r:embed="rId6" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10772140" y="5608320"/>
-          <a:ext cx="3117850" cy="2168525"/>
+          <a:off x="13989685" y="5573395"/>
+          <a:ext cx="2934335" cy="2214880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -453,40 +1085,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>86995</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3020060</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>857885</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3162935</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>67310</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="media.techmaster.vn/api/fileman/Uploads/ImageBl..."/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" r:link="rId2"/>
+        <a:blip r:embed="rId7" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13992225" y="5573395"/>
-          <a:ext cx="2934335" cy="2214880"/>
+          <a:off x="857885" y="5144135"/>
+          <a:ext cx="3267710" cy="3267075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -503,7 +1129,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -519,19 +1145,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -539,7 +1159,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="142875" y="66675"/>
-          <a:ext cx="7090410" cy="6465570"/>
+          <a:ext cx="7062470" cy="6465570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -567,27 +1187,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8486775" y="635"/>
-          <a:ext cx="6248400" cy="6524625"/>
+          <a:off x="8453755" y="635"/>
+          <a:ext cx="6220460" cy="6524625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -615,27 +1229,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8562975" y="6848475"/>
-          <a:ext cx="6191250" cy="7267575"/>
+          <a:off x="8527415" y="6848475"/>
+          <a:ext cx="6165850" cy="7267575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -663,19 +1271,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -683,7 +1285,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="76200" y="6924675"/>
-          <a:ext cx="7124700" cy="5428615"/>
+          <a:ext cx="7096760" cy="5428615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -699,39 +1301,33 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>90170</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>549910</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>166370</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="485775" y="14377670"/>
-          <a:ext cx="5753100" cy="9777730"/>
+          <a:off x="549910" y="14716125"/>
+          <a:ext cx="6480175" cy="10405745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -746,40 +1342,118 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>24765</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>36195</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>311785</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>527685</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>92710</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8191500" y="14312265"/>
-          <a:ext cx="5865495" cy="9836785"/>
+          <a:off x="7596505" y="14811375"/>
+          <a:ext cx="7500620" cy="2235835"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>64135</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>280035</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="671195" y="25984200"/>
+          <a:ext cx="6286500" cy="6438900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>473710</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7758430" y="26469975"/>
+          <a:ext cx="6324600" cy="1114425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -796,7 +1470,96 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>151130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>270510</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057275" y="4900930"/>
+          <a:ext cx="5556885" cy="4630420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>300990</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>86995</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Hướng dẫn Java Design Pattern - Dependency Injection - GP Coder (Lập trình  Java)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7400925" y="4445000"/>
+          <a:ext cx="7769860" cy="4201795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -810,23 +1573,17 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4097" name="AutoShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B857557-1867-4A7A-9FDD-8F8226A42C63}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4097" name="AutoShape 1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="609600" y="2743200"/>
-          <a:ext cx="304800" cy="304800"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="2057400"/>
+          <a:ext cx="304800" cy="312420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -858,22 +1615,16 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4098" name="AutoShape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4329EB9-C33E-434F-B0E5-FAFB6922FD84}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4098" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5768340" y="182880"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13786485" y="190500"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -906,22 +1657,16 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4099" name="AutoShape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1EE9668-B48C-4E64-8C85-BC835B6CAB2F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4099" name="AutoShape 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5768340" y="182880"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13786485" y="190500"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -954,22 +1699,16 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4100" name="AutoShape 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B335CE80-219F-44A0-901E-9C204FCF5A7A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4100" name="AutoShape 4"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5768340" y="182880"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13786485" y="190500"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1002,22 +1741,16 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4101" name="AutoShape 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBC3E5CD-1FF0-4997-86FC-FD445A8CAA77}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4101" name="AutoShape 5"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5768340" y="182880"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13786485" y="190500"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1050,22 +1783,16 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4102" name="AutoShape 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBF472A3-3781-44C7-9E17-34F1464A2527}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4102" name="AutoShape 6"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5768340" y="182880"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13786485" y="190500"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1098,23 +1825,17 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4103" name="AutoShape 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F710811D-62DE-47EC-8ED0-48785BACC896}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4103" name="AutoShape 7"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5768340" y="3108960"/>
-          <a:ext cx="304800" cy="304800"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13786485" y="2438400"/>
+          <a:ext cx="304800" cy="312420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1146,23 +1867,17 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4104" name="AutoShape 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFEFF59F-E1F3-4C44-AB36-9B85B8AA6D0E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4104" name="AutoShape 8"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5158740" y="2926080"/>
-          <a:ext cx="304800" cy="304800"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10586085" y="2247900"/>
+          <a:ext cx="304800" cy="312420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1194,23 +1909,17 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4105" name="AutoShape 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13196657-47C2-48BF-BBA3-6FBD8AB494F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4105" name="AutoShape 9"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5158740" y="2926080"/>
-          <a:ext cx="304800" cy="304800"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10586085" y="2247900"/>
+          <a:ext cx="304800" cy="312420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1242,23 +1951,17 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4106" name="AutoShape 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EC62E17-8BA4-4374-B6EE-9A27644291C0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4106" name="AutoShape 10"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5158740" y="2926080"/>
-          <a:ext cx="304800" cy="304800"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10586085" y="2247900"/>
+          <a:ext cx="304800" cy="312420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1290,23 +1993,17 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4107" name="AutoShape 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D600F2A-82C4-4A5D-9C05-10415D32BBF8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4107" name="AutoShape 11"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5158740" y="2926080"/>
-          <a:ext cx="304800" cy="304800"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10586085" y="2247900"/>
+          <a:ext cx="304800" cy="312420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1338,23 +2035,17 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4108" name="AutoShape 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F4CD5C-3E6D-4CD3-8BF6-4269E0D4BD31}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4108" name="AutoShape 12"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5158740" y="2926080"/>
-          <a:ext cx="304800" cy="304800"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10586085" y="2247900"/>
+          <a:ext cx="304800" cy="312420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1386,23 +2077,17 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4109" name="AutoShape 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8647451D-D430-4581-A1F4-F122D4099596}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4109" name="AutoShape 13"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5158740" y="2926080"/>
-          <a:ext cx="304800" cy="304800"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10586085" y="2247900"/>
+          <a:ext cx="304800" cy="312420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1434,23 +2119,17 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4110" name="AutoShape 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD2F127-4E0D-48ED-AEF0-86F2D52DE66A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4110" name="AutoShape 14"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5158740" y="2926080"/>
-          <a:ext cx="304800" cy="304800"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10586085" y="2247900"/>
+          <a:ext cx="304800" cy="312420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1482,23 +2161,17 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4111" name="AutoShape 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276932CA-EE4A-4EE3-82A3-E6496B7700E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4111" name="AutoShape 15"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5158740" y="2926080"/>
-          <a:ext cx="304800" cy="304800"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10586085" y="2247900"/>
+          <a:ext cx="304800" cy="312420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1525,34 +2198,28 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5407299</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D84DC4-7C03-4FCE-9700-EE6085BC4865}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="655320" y="2895600"/>
-          <a:ext cx="5361579" cy="2537460"/>
+          <a:off x="645795" y="2209800"/>
+          <a:ext cx="5280660" cy="2644140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1564,8 +2231,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1581,19 +2248,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Spring Core - Spring Bean, Các scope trong Spring, Spring Bean Scope">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19BBE9A7-837D-4697-A2FC-B78D7A518AA0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Spring Core - Spring Bean, Các scope trong Spring, Spring Bean Scope"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1605,10 +2266,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5204460" y="297180"/>
-          <a:ext cx="3688080" cy="3017520"/>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5182235" y="304800"/>
+          <a:ext cx="3630930" cy="3246120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1882,198 +2543,293 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="49.5546875" customWidth="1"/>
-    <col min="3" max="3" width="47.88671875" customWidth="1"/>
-    <col min="4" max="4" width="49.109375" customWidth="1"/>
-    <col min="5" max="5" width="47.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.4380952380952" customWidth="1"/>
+    <col min="2" max="2" width="49.552380952381" customWidth="1"/>
+    <col min="3" max="3" width="47.8857142857143" customWidth="1"/>
+    <col min="4" max="4" width="49.1047619047619" customWidth="1"/>
+    <col min="5" max="5" width="47.552380952381" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" ht="21" spans="1:6">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="210">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="210" spans="1:6">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="126">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="126" spans="1:6">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="8" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="L105" sqref="L105"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="P150" sqref="P150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V8" sqref="E19 V8"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="12.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="82.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="64.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" ht="105" spans="1:3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="69" customHeight="1" spans="1:3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" ht="65" customHeight="1" spans="1:3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B09B8BD-0B24-44F9-A5F9-4134BF9F3E81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="79.88671875" customWidth="1"/>
-    <col min="3" max="3" width="69.88671875" customWidth="1"/>
+    <col min="2" max="2" width="79.8857142857143" customWidth="1"/>
+    <col min="3" max="3" width="69.8857142857143" customWidth="1"/>
     <col min="4" max="4" width="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="147" customHeight="1">
-      <c r="B2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>22</v>
+    <row r="2" ht="147" customHeight="1" spans="2:4">
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F728CD-0C51-4710-B376-7866FABAC959}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="51.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="51.4380952380952" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="5" t="s">
-        <v>23</v>
+    <row r="1" spans="2:2">
+      <c r="B1" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="72">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="90" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>24</v>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="216">
-      <c r="B3" s="6" t="s">
-        <v>25</v>
+    <row r="3" ht="225" spans="2:2">
+      <c r="B3" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="75.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="73.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" ht="60" spans="2:3">
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12495" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12495" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="5 nguyên ly solid" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,16 @@
     <sheet name="@Restcontroller" sheetId="4" r:id="rId4"/>
     <sheet name="@Scope" sheetId="5" r:id="rId5"/>
     <sheet name="@Configuration &amp; @Bean" sheetId="6" r:id="rId6"/>
+    <sheet name="CORS" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Single responsibility priciple</t>
   </si>
@@ -83,7 +86,7 @@
     <t>DI</t>
   </si>
   <si>
-    <t>IoC là viết tắt của Inversion of Control, hay còn gọi là Dependency Injection (DI). IoC là một nguyên tắc thiết kế phần mềm, trong đó vai trò điều khiển luồng của chương trình được đảo ngược hoàn toàn.
+    <t>IoC là viết tắt của Inversion of Control. IoC là một nguyên tắc thiết kế phần mềm, trong đó vai trò điều khiển luồng của chương trình được đảo ngược hoàn toàn.
 Trong truyền thống, các đối tượng có thể được tạo và sử dụng bằng cách khởi tạo chúng bên trong lớp hoặc đối tượng khác. Khi sử dụng IoC, các đối tượng không được tạo bên trong lớp hoặc đối tượng đó, mà được tạo và quản lý bởi một bên thứ ba, thường là một container, chẳng hạn như Spring IoC container.</t>
   </si>
   <si>
@@ -111,7 +114,7 @@
     <t>Restcontroller</t>
   </si>
   <si>
-    <t>Service</t>
+    <t>@Service</t>
   </si>
   <si>
     <t>Repository</t>
@@ -154,25 +157,49 @@
   <si>
     <t>Trong Spring Core, @Bean là một annotation được sử dụng để đánh dấu một phương thức trả về đối tượng nào đó là một bean. Bean là một đối tượng được quản lý bởi Spring IoC container và được sử dụng trong ứng dụng.</t>
   </si>
+  <si>
+    <t>CORS</t>
+  </si>
+  <si>
+    <t>CORS là một cơ chế cho phép nhiều tài nguyên khác nhau (fonts, Javascript, v.v…) của một trang web có thể được truy vấn từ domain khác với domain của trang đó. CORS là viết tắt của từ Cross-origin resource sharing
+Khi call API tới server mà không có header Access-Control-Allow-Origin hoặc giá trị của nó không hợp lệ thì sẽ phát sinh lỗi này và không lấy được dữ liệu từ API. Cách khắc phục lỗi trên là phải config enable CORS lên để phía client có thể gọi được dữ liệu</t>
+  </si>
+  <si>
+    <t>Ngăn chặn việc truy cập tài nguyên của các domain khác một cách vô tội vạ.
+Chia sẻ tài nguyên giữa các trang web khác miền nhau.
+Cho phép các ứng dụng web chạy trên các tên miền khác nhau truy cập tài nguyên trên máy chủ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SOLID Principles(5 nguyên tắc thiết kế): mỗi nguyên tắc cho một ví dụ
+2. Inversion of Control
+3. Dependency Injection
+4. Tìm hiểu về Spring Core
+ - Tìm hiểu về các component(thành phần) của spring core
+  +  Spring Component: các annotation @RestController, @Service, @Repository
+  +  annotation @Scope
+  +  annotation @Configuration, @Bean: using for IOC Container</t>
+  </si>
+  <si>
+    <t>1 cho thấy sự phụ thuộc</t>
+  </si>
+  <si>
+    <t>2 các cách triển khai cors</t>
+  </si>
+  <si>
+    <t>3 loại bỏ sự phụ thuộc bằng interface</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,10 +222,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,9 +252,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,30 +299,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -258,22 +307,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,8 +321,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,7 +338,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,22 +353,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,7 +374,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,7 +422,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,13 +446,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,37 +518,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,97 +548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,6 +559,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -546,32 +597,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,6 +625,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -609,26 +649,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,7 +664,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,130 +682,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -789,25 +816,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1499,7 +1526,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1057275" y="4900930"/>
+          <a:off x="1057275" y="4710430"/>
           <a:ext cx="5556885" cy="4630420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1516,13 +1543,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:colOff>1047750</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>300990</xdr:colOff>
+      <xdr:colOff>291465</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>86995</xdr:rowOff>
     </xdr:to>
@@ -1541,7 +1568,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7400925" y="4445000"/>
+          <a:off x="7391400" y="4254500"/>
           <a:ext cx="7769860" cy="4201795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1582,7 +1609,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="600075" y="2057400"/>
+          <a:off x="600075" y="2476500"/>
           <a:ext cx="304800" cy="312420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1834,7 +1861,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13786485" y="2438400"/>
+          <a:off x="13786485" y="2857500"/>
           <a:ext cx="304800" cy="312420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1876,7 +1903,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10586085" y="2247900"/>
+          <a:off x="10586085" y="2667000"/>
           <a:ext cx="304800" cy="312420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1918,7 +1945,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10586085" y="2247900"/>
+          <a:off x="10586085" y="2667000"/>
           <a:ext cx="304800" cy="312420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1960,7 +1987,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10586085" y="2247900"/>
+          <a:off x="10586085" y="2667000"/>
           <a:ext cx="304800" cy="312420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2002,7 +2029,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10586085" y="2247900"/>
+          <a:off x="10586085" y="2667000"/>
           <a:ext cx="304800" cy="312420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2044,7 +2071,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10586085" y="2247900"/>
+          <a:off x="10586085" y="2667000"/>
           <a:ext cx="304800" cy="312420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2086,7 +2113,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10586085" y="2247900"/>
+          <a:off x="10586085" y="2667000"/>
           <a:ext cx="304800" cy="312420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2128,7 +2155,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10586085" y="2247900"/>
+          <a:off x="10586085" y="2667000"/>
           <a:ext cx="304800" cy="312420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2170,7 +2197,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10586085" y="2247900"/>
+          <a:off x="10586085" y="2667000"/>
           <a:ext cx="304800" cy="312420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2218,7 +2245,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="645795" y="2209800"/>
+          <a:off x="645795" y="2628900"/>
           <a:ext cx="5280660" cy="2644140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2284,6 +2311,53 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>48895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>538480</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="How do Cross Origin Resource Sharing (CORS) Headers work?"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6819900" y="48895"/>
+          <a:ext cx="9996805" cy="5377180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2551,8 +2625,8 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -2635,7 +2709,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="P150" sqref="P150"/>
     </sheetView>
   </sheetViews>
@@ -2653,7 +2727,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -2671,14 +2745,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" ht="105" spans="1:3">
+    <row r="2" ht="90" spans="1:3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2686,19 +2760,19 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" ht="65" customHeight="1" spans="1:3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2717,7 +2791,7 @@
   <dimension ref="B1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2734,18 +2808,18 @@
       <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" ht="147" customHeight="1" spans="2:4">
-      <c r="B2" s="4" t="s">
+    <row r="2" ht="180" spans="2:4">
+      <c r="B2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2763,7 +2837,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -2773,20 +2847,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" ht="90" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" ht="225" spans="2:2">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2803,7 +2877,7 @@
   <dimension ref="B1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -2821,11 +2895,111 @@
       </c>
     </row>
     <row r="2" ht="60" spans="2:3">
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="10.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="87.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" ht="90" spans="1:2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" ht="45" spans="1:2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="64.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="135" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
